--- a/ehcore/src/main/java/com/everhomes/pmtask/temp-pmtask.xlsx
+++ b/ehcore/src/main/java/com/everhomes/pmtask/temp-pmtask.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
